--- a/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
+++ b/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_suspeito\forms\medicamento_suspeito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F25BEF-073A-4595-8A91-EF21477B5A6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7495D8-38E4-482C-8D08-3B26892F7F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="13710" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13695" yWindow="14760" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -218,18 +218,6 @@
     <t>fieldName</t>
   </si>
   <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
     <t>date_start</t>
   </si>
   <si>
@@ -272,9 +260,6 @@
     <t>Retal</t>
   </si>
   <si>
-    <t>Vaginal</t>
-  </si>
-  <si>
     <t>outro</t>
   </si>
   <si>
@@ -380,10 +365,19 @@
     <t>Especifica a unidade da dose</t>
   </si>
   <si>
-    <t>data('via')=='10'</t>
-  </si>
-  <si>
     <t>id_estudo</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>data('via')=='9'</t>
+  </si>
+  <si>
+    <t>data('date_end')&gt;=data('date_start')</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +997,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,7 +1013,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1043,13 +1037,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" activeCellId="1" sqref="D4:D28 F4:F28"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,15 +1057,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="5"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="5"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1099,50 +1095,56 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -1151,10 +1153,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
@@ -1165,44 +1167,44 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18" t="s">
@@ -1210,14 +1212,14 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>41</v>
       </c>
@@ -1228,149 +1230,149 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
@@ -1378,14 +1380,17 @@
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
@@ -1393,33 +1398,39 @@
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -1433,10 +1444,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C27"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1493,218 +1504,211 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="2">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -1712,13 +1716,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
@@ -1946,10 +1950,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
@@ -2042,10 +2046,6 @@
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="C188" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2198,7 +2198,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2216,20 +2216,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2245,7 +2237,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2268,15 +2260,15 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,7 +2276,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2292,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2300,23 +2292,23 @@
         <v>47</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2324,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,7 +2340,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2356,7 +2348,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2364,7 +2356,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2372,7 +2364,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
+++ b/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_suspeito\forms\medicamento_suspeito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7495D8-38E4-482C-8D08-3B26892F7F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996BEB6-8922-4E60-81B0-2CDDBE8126FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13695" yWindow="14760" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
   <si>
     <t>type</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>data('date_end')&gt;=data('date_start')</t>
+  </si>
+  <si>
+    <t>evento_adversoformID</t>
   </si>
 </sst>
 </file>
@@ -2235,10 +2238,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2264,11 +2267,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>83</v>
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2276,104 +2279,100 @@
         <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>87</v>
+      <c r="B5" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>103</v>
+      <c r="B8" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>101</v>
+      <c r="B9" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>106</v>
+      <c r="B10" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>60</v>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -2414,14 +2413,6 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
+++ b/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_suspeito\forms\medicamento_suspeito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996BEB6-8922-4E60-81B0-2CDDBE8126FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98280F9A-2E99-4CFD-BDFA-6015B165F531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -1042,7 +1042,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2066,7 +2066,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>

--- a/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
+++ b/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_suspeito\forms\medicamento_suspeito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98280F9A-2E99-4CFD-BDFA-6015B165F531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82576259-FCB3-4F51-902F-DC35DA5D22B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
   <si>
     <t>type</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>evento_adversoformID</t>
+  </si>
+  <si>
+    <t>calculates.diferenca()&lt;0</t>
+  </si>
+  <si>
+    <t>erro_datas</t>
+  </si>
+  <si>
+    <t>diferenca</t>
+  </si>
+  <si>
+    <t>A data do fim "{{data('date_end')}}" não deve ser menor que a data do inicio "{{data('date_start')}}"</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_end'), data('date_start'))</t>
   </si>
 </sst>
 </file>
@@ -1040,13 +1055,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1421,14 +1436,42 @@
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2066,9 +2109,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2200,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2219,8 +2262,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2241,7 +2288,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
+++ b/app/config/tables/medicamento_suspeito/forms/medicamento_suspeito/medicamento_suspeito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\medicamento_suspeito\forms\medicamento_suspeito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82576259-FCB3-4F51-902F-DC35DA5D22B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97687E-E056-4335-B545-C5EA2DEEC456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="8685" windowWidth="19500" windowHeight="10185" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
   <si>
     <t>type</t>
   </si>
@@ -377,9 +378,6 @@
     <t>data('via')=='9'</t>
   </si>
   <si>
-    <t>data('date_end')&gt;=data('date_start')</t>
-  </si>
-  <si>
     <t>evento_adversoformID</t>
   </si>
   <si>
@@ -392,10 +390,67 @@
     <t>diferenca</t>
   </si>
   <si>
-    <t>A data do fim "{{data('date_end')}}" não deve ser menor que a data do inicio "{{data('date_start')}}"</t>
-  </si>
-  <si>
-    <t>adate.diffInDays(data('date_end'), data('date_start'))</t>
+    <t>data_form</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>date_form_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_form())</t>
+  </si>
+  <si>
+    <t>nao_futuro_end</t>
+  </si>
+  <si>
+    <t>nao_futuro_start</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_end()&lt;0</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_start()&lt;0</t>
+  </si>
+  <si>
+    <t>erro_data_fim</t>
+  </si>
+  <si>
+    <t>corrija a data por favor</t>
+  </si>
+  <si>
+    <t>erro_data_inicio</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_start'),data('date_end'))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_end'),calculates.data_form())</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_start'),calculates.data_form())</t>
+  </si>
+  <si>
+    <t>erro_data</t>
+  </si>
+  <si>
+    <t>calculates.nao_futuro_end()&lt;0 || calculates.nao_futuro_start()&lt;0</t>
+  </si>
+  <si>
+    <t>A data do fim {{data.date_end}} não deve ser menor que a data do inicio {{data.date_start}}</t>
+  </si>
+  <si>
+    <t>A data não deve ser no futuro porque hoje é {{calculates.data_form}} que é menor do que a data do fim {{data.date_end}}</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data()</t>
+  </si>
+  <si>
+    <t>A data não deve ser no futuro porque hoje é {{calculates.data_form}} que é menor do que a data do inicio {{data.date_start}}</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -521,7 +576,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -557,9 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,10 +1038,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1092,14 @@
       </c>
       <c r="B5" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1055,13 +1115,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1175,30 +1235,30 @@
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D5" s="8" t="s">
@@ -1223,30 +1283,30 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
@@ -1260,34 +1320,34 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
@@ -1328,21 +1388,21 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -1391,42 +1451,39 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="K24" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="17"/>
       <c r="K25" s="2">
         <v>2020</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -1441,7 +1498,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="2"/>
@@ -1451,10 +1508,10 @@
         <v>82</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -1464,14 +1521,82 @@
       <c r="D29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2128,47 +2253,47 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2241,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2262,20 +2387,56 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2330,18 +2491,18 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2362,10 +2523,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2378,18 +2539,18 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2406,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
